--- a/tool/e2e-tests/test-packs/Test Pack - Script Types - Not Allowed.xlsx
+++ b/tool/e2e-tests/test-packs/Test Pack - Script Types - Not Allowed.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apotecltd.sharepoint.com/sites/InternalExternalTeams/Shared Documents/General/EPS Tests Packs for EPSAT Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathew.arnold\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3B47AC96-B0CF-4173-A17F-80D0B17809B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A8A6DCC-1DEF-43DD-9784-1F2B9CC9E556}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2F34A-DE01-4195-96D7-8D04803DCCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="37140" yWindow="5445" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="16186" firstSheet="1" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
     <sheet name="Prescriptions" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prescriptions!$A$1:$U$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prescriptions!$A$1:$V$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="164">
   <si>
     <t>Only one organisation is supported</t>
   </si>
@@ -529,6 +528,9 @@
   </si>
   <si>
     <t>Controlled Drug Quantity</t>
+  </si>
+  <si>
+    <t>P1</t>
   </si>
 </sst>
 </file>
@@ -956,42 +958,42 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="82.77734375" customWidth="1"/>
+    <col min="1" max="1" width="82.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1004,39 +1006,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}">
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="86.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.34765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.34765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.34765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.34765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.44921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.6484375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="86.546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1049,59 +1052,60 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1114,43 +1118,46 @@
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
+      <c r="E2" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="9" t="s">
+      <c r="Q2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1163,43 +1170,46 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>28</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="9" t="s">
+      <c r="Q3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1212,43 +1222,46 @@
       <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="E4" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>28</v>
-      </c>
-      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="9" t="s">
+      <c r="Q4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1261,43 +1274,46 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="E5" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9" t="s">
+      <c r="Q5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1310,43 +1326,46 @@
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
+      <c r="E6" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>28</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9" t="s">
+      <c r="Q6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1359,43 +1378,46 @@
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="E7" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9" t="s">
+      <c r="Q7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1408,43 +1430,46 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
+      <c r="E8" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>28</v>
-      </c>
-      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9" t="s">
+      <c r="Q8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1457,43 +1482,46 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
+      <c r="E9" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>28</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9" t="s">
+      <c r="Q9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1506,43 +1534,46 @@
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
+      <c r="E10" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>28</v>
-      </c>
-      <c r="H10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>28</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9" t="s">
+      <c r="Q10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1555,43 +1586,46 @@
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="E11" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>28</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9" t="s">
+      <c r="Q11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1604,43 +1638,46 @@
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
+      <c r="E12" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="9" t="s">
+      <c r="Q12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1653,43 +1690,46 @@
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
+      <c r="E13" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="9" t="s">
+      <c r="Q13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1702,43 +1742,46 @@
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
+      <c r="E14" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>28</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="9" t="s">
+      <c r="Q14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1751,43 +1794,46 @@
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
+      <c r="E15" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>28</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9" t="s">
+      <c r="Q15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1800,43 +1846,46 @@
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
+      <c r="E16" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>28</v>
-      </c>
-      <c r="H16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>28</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="9" t="s">
+      <c r="Q16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1849,43 +1898,46 @@
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
+      <c r="E17" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>28</v>
-      </c>
-      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>28</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9" t="s">
+      <c r="Q17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1898,43 +1950,46 @@
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
+      <c r="E18" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>28</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="9" t="s">
+      <c r="Q18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1947,43 +2002,46 @@
       <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
+      <c r="E19" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>28</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>28</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="N19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="9" t="s">
+      <c r="Q19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1996,43 +2054,46 @@
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
+      <c r="E20" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>28</v>
-      </c>
-      <c r="H20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>28</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="9" t="s">
+      <c r="Q20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2045,43 +2106,46 @@
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
+      <c r="E21" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>28</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="9" t="s">
+      <c r="Q21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2094,43 +2158,46 @@
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
+      <c r="E22" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>28</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>28</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="9" t="s">
+      <c r="Q22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2143,43 +2210,46 @@
       <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
+      <c r="E23" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>28</v>
-      </c>
-      <c r="H23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>28</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="9" t="s">
+      <c r="Q23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2192,43 +2262,46 @@
       <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
+      <c r="E24" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>28</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="N24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="9" t="s">
+      <c r="Q24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2241,43 +2314,46 @@
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
+      <c r="E25" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>28</v>
-      </c>
-      <c r="H25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>28</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="9" t="s">
+      <c r="Q25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2290,43 +2366,46 @@
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
+      <c r="E26" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>28</v>
-      </c>
-      <c r="H26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>28</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="N26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="9" t="s">
+      <c r="Q26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2339,43 +2418,46 @@
       <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
+      <c r="E27" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>28</v>
-      </c>
-      <c r="H27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="9" t="s">
+      <c r="Q27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2388,43 +2470,46 @@
       <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
+      <c r="E28" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>28</v>
-      </c>
-      <c r="H28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>28</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="9" t="s">
+      <c r="Q28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2437,43 +2522,46 @@
       <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
+      <c r="E29" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>28</v>
-      </c>
-      <c r="H29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="N29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="9" t="s">
+      <c r="Q29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2486,43 +2574,46 @@
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
+      <c r="E30" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>28</v>
-      </c>
-      <c r="H30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>28</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="9" t="s">
+      <c r="Q30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2535,43 +2626,46 @@
       <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
+      <c r="E31" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>28</v>
-      </c>
-      <c r="H31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>28</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="N31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="9" t="s">
+      <c r="Q31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2584,43 +2678,46 @@
       <c r="D32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
+      <c r="E32" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>28</v>
-      </c>
-      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>28</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="9" t="s">
+      <c r="Q32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2633,43 +2730,46 @@
       <c r="D33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
+      <c r="E33" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>28</v>
-      </c>
-      <c r="H33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>28</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="9" t="s">
+      <c r="Q33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2682,43 +2782,46 @@
       <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
+      <c r="E34" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>28</v>
-      </c>
-      <c r="H34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>28</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="N34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="9" t="s">
+      <c r="Q34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2731,43 +2834,46 @@
       <c r="D35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
+      <c r="E35" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>28</v>
-      </c>
-      <c r="H35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>28</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="9" t="s">
+      <c r="Q35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2780,43 +2886,46 @@
       <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="1">
-        <v>1</v>
+      <c r="E36" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>28</v>
-      </c>
-      <c r="H36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>28</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="N36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="9" t="s">
+      <c r="Q36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2829,43 +2938,46 @@
       <c r="D37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
+      <c r="E37" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>28</v>
-      </c>
-      <c r="H37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>28</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="9" t="s">
+      <c r="Q37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2878,43 +2990,46 @@
       <c r="D38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="1">
-        <v>1</v>
+      <c r="E38" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>28</v>
-      </c>
-      <c r="H38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>28</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="9" t="s">
+      <c r="Q38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2927,43 +3042,46 @@
       <c r="D39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
+      <c r="E39" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>28</v>
-      </c>
-      <c r="H39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>28</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="M39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="N39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="9" t="s">
+      <c r="Q39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2976,43 +3094,46 @@
       <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
+      <c r="E40" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>28</v>
-      </c>
-      <c r="H40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>28</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="M40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="9" t="s">
+      <c r="Q40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3025,43 +3146,46 @@
       <c r="D41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
+      <c r="E41" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>28</v>
-      </c>
-      <c r="H41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>28</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="J41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="M41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="N41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="9" t="s">
+      <c r="Q41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3074,43 +3198,46 @@
       <c r="D42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
+      <c r="E42" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>28</v>
-      </c>
-      <c r="H42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>28</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="9" t="s">
+      <c r="Q42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3123,43 +3250,46 @@
       <c r="D43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
+      <c r="E43" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>28</v>
-      </c>
-      <c r="H43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>28</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="J43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="9" t="s">
+      <c r="Q43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3172,43 +3302,46 @@
       <c r="D44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="1">
-        <v>1</v>
+      <c r="E44" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>28</v>
-      </c>
-      <c r="H44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>28</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="M44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="N44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="9" t="s">
+      <c r="Q44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3221,43 +3354,46 @@
       <c r="D45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="1">
-        <v>1</v>
+      <c r="E45" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>28</v>
-      </c>
-      <c r="H45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>28</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="J45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="M45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="9" t="s">
+      <c r="Q45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3270,43 +3406,46 @@
       <c r="D46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="1">
-        <v>1</v>
+      <c r="E46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>28</v>
-      </c>
-      <c r="H46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>28</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="J46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="K46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="M46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="N46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="9" t="s">
+      <c r="Q46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3319,43 +3458,46 @@
       <c r="D47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
+      <c r="E47" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>28</v>
-      </c>
-      <c r="H47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>28</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="M47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="9" t="s">
+      <c r="Q47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3368,43 +3510,46 @@
       <c r="D48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="1">
-        <v>1</v>
+      <c r="E48" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>28</v>
-      </c>
-      <c r="H48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>28</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="M48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="9" t="s">
+      <c r="Q48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3417,43 +3562,46 @@
       <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="1">
-        <v>1</v>
+      <c r="E49" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>28</v>
-      </c>
-      <c r="H49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>28</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="M49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="N49" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="9" t="s">
+      <c r="Q49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3466,43 +3614,46 @@
       <c r="D50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="1">
-        <v>1</v>
+      <c r="E50" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>28</v>
-      </c>
-      <c r="H50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>28</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="J50" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="9" t="s">
+      <c r="Q50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3515,43 +3666,46 @@
       <c r="D51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="1">
-        <v>1</v>
+      <c r="E51" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>28</v>
-      </c>
-      <c r="H51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>28</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="J51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="K51" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="M51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="N51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="9" t="s">
+      <c r="Q51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3564,43 +3718,46 @@
       <c r="D52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="1">
-        <v>1</v>
+      <c r="E52" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>28</v>
-      </c>
-      <c r="H52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>28</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="9" t="s">
+      <c r="Q52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3613,43 +3770,46 @@
       <c r="D53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="1">
-        <v>1</v>
+      <c r="E53" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>28</v>
-      </c>
-      <c r="H53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>28</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="M53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="9" t="s">
+      <c r="Q53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3662,43 +3822,46 @@
       <c r="D54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="1">
-        <v>1</v>
+      <c r="E54" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>28</v>
-      </c>
-      <c r="H54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>28</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="M54" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="N54" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="9" t="s">
+      <c r="Q54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3711,43 +3874,46 @@
       <c r="D55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="1">
-        <v>1</v>
+      <c r="E55" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="G55" s="1">
-        <v>28</v>
-      </c>
-      <c r="H55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>28</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="J55" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="7" t="s">
+      <c r="K55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="M55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="9" t="s">
+      <c r="Q55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3760,43 +3926,46 @@
       <c r="D56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="1">
-        <v>1</v>
+      <c r="E56" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>28</v>
-      </c>
-      <c r="H56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>28</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="9" t="s">
+      <c r="Q56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3809,43 +3978,46 @@
       <c r="D57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="1">
-        <v>1</v>
+      <c r="E57" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <v>28</v>
-      </c>
-      <c r="H57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>28</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L57" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="9" t="s">
+      <c r="Q57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3858,43 +4030,46 @@
       <c r="D58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="1">
-        <v>1</v>
+      <c r="E58" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>28</v>
-      </c>
-      <c r="H58" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>28</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="M58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="9" t="s">
+      <c r="Q58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3907,43 +4082,46 @@
       <c r="D59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="1">
-        <v>1</v>
+      <c r="E59" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
       </c>
       <c r="G59" s="1">
-        <v>28</v>
-      </c>
-      <c r="H59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>28</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L59" s="7" t="s">
+      <c r="M59" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="N59" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="9" t="s">
+      <c r="Q59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3956,43 +4134,46 @@
       <c r="D60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="1">
-        <v>1</v>
+      <c r="E60" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>28</v>
-      </c>
-      <c r="H60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>28</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="M60" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="9" t="s">
+      <c r="Q60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4005,43 +4186,46 @@
       <c r="D61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="1">
-        <v>1</v>
+      <c r="E61" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>28</v>
-      </c>
-      <c r="H61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>28</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="M61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="N61" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="9" t="s">
+      <c r="Q61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4054,196 +4238,199 @@
       <c r="D62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="1">
-        <v>1</v>
+      <c r="E62" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <v>28</v>
-      </c>
-      <c r="H62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>28</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" s="7" t="s">
+      <c r="K62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="M62" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="9" t="s">
+      <c r="Q62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="7"/>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I63" s="7"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I64" s="7"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="7"/>
+      <c r="L64" s="1"/>
       <c r="M64" s="7"/>
-    </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="7"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I65" s="7"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-    </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="1"/>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="7"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="7"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I68" s="7"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="7"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H69" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I69" s="7"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="7"/>
+      <c r="L69" s="1"/>
       <c r="M69" s="7"/>
-    </row>
-    <row r="70" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H70" s="7"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I70" s="7"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H71" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-    </row>
-    <row r="72" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H72" s="1"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="7"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H73" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I73" s="7"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="1"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H74" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I74" s="7"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="7"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="7"/>
+      <c r="L74" s="1"/>
       <c r="M74" s="7"/>
-    </row>
-    <row r="75" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H75" s="7"/>
+      <c r="N74" s="7"/>
+    </row>
+    <row r="75" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I75" s="7"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="7"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H76" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-    </row>
-    <row r="77" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H77" s="1"/>
+      <c r="N76" s="7"/>
+    </row>
+    <row r="77" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="7"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H78" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I78" s="7"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="1"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H79" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I79" s="7"/>
-      <c r="J79" s="1"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="7"/>
+      <c r="L79" s="1"/>
       <c r="M79" s="7"/>
-    </row>
-    <row r="80" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H80" s="7"/>
+      <c r="N79" s="7"/>
+    </row>
+    <row r="80" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I80" s="7"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H81" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U6" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}"/>
+  <autoFilter ref="A1:V6" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4251,6 +4438,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="76e91428-a7f3-4551-8ad9-355bcde117c2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5b69da58-499a-4190-98d9-528841fe850b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077F18FD3DE1A9F46B48F2CEB8D58E8DE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29bbfc33a20b984a6bd9df737087a05c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b69da58-499a-4190-98d9-528841fe850b" xmlns:ns3="76e91428-a7f3-4551-8ad9-355bcde117c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1d695bf3dcfa2ca9c872e2cc9249639" ns2:_="" ns3:_="">
     <xsd:import namespace="5b69da58-499a-4190-98d9-528841fe850b"/>
@@ -4461,27 +4668,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EAD036D-F34A-4E5B-9E8E-5D20D0D65AE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="76e91428-a7f3-4551-8ad9-355bcde117c2"/>
+    <ds:schemaRef ds:uri="5b69da58-499a-4190-98d9-528841fe850b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="76e91428-a7f3-4551-8ad9-355bcde117c2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5b69da58-499a-4190-98d9-528841fe850b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1992767-8B66-4024-9F8C-CD8162B305A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51687A1D-BCE9-4F18-8CFB-7F030D88E905}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4498,23 +4704,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1992767-8B66-4024-9F8C-CD8162B305A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EAD036D-F34A-4E5B-9E8E-5D20D0D65AE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="76e91428-a7f3-4551-8ad9-355bcde117c2"/>
-    <ds:schemaRef ds:uri="5b69da58-499a-4190-98d9-528841fe850b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tool/e2e-tests/test-packs/Test Pack - Script Types - Not Allowed.xlsx
+++ b/tool/e2e-tests/test-packs/Test Pack - Script Types - Not Allowed.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathew.arnold\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2F34A-DE01-4195-96D7-8D04803DCCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2469513C-2FB1-4F6A-B3CF-07ED4F2397E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="16186" firstSheet="1" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="165">
   <si>
     <t>Only one organisation is supported</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>P1</t>
+  </si>
+  <si>
+    <t>Nominated Pharmacy Type</t>
   </si>
 </sst>
 </file>
@@ -1009,8 +1012,8 @@
   <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1052,7 +1055,9 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4438,26 +4443,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="76e91428-a7f3-4551-8ad9-355bcde117c2" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5b69da58-499a-4190-98d9-528841fe850b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077F18FD3DE1A9F46B48F2CEB8D58E8DE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29bbfc33a20b984a6bd9df737087a05c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5b69da58-499a-4190-98d9-528841fe850b" xmlns:ns3="76e91428-a7f3-4551-8ad9-355bcde117c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1d695bf3dcfa2ca9c872e2cc9249639" ns2:_="" ns3:_="">
     <xsd:import namespace="5b69da58-499a-4190-98d9-528841fe850b"/>
@@ -4668,26 +4653,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EAD036D-F34A-4E5B-9E8E-5D20D0D65AE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="76e91428-a7f3-4551-8ad9-355bcde117c2"/>
-    <ds:schemaRef ds:uri="5b69da58-499a-4190-98d9-528841fe850b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1992767-8B66-4024-9F8C-CD8162B305A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="76e91428-a7f3-4551-8ad9-355bcde117c2" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5b69da58-499a-4190-98d9-528841fe850b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51687A1D-BCE9-4F18-8CFB-7F030D88E905}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4704,4 +4690,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1992767-8B66-4024-9F8C-CD8162B305A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EAD036D-F34A-4E5B-9E8E-5D20D0D65AE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="76e91428-a7f3-4551-8ad9-355bcde117c2"/>
+    <ds:schemaRef ds:uri="5b69da58-499a-4190-98d9-528841fe850b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tool/e2e-tests/test-packs/Test Pack - Script Types - Not Allowed.xlsx
+++ b/tool/e2e-tests/test-packs/Test Pack - Script Types - Not Allowed.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apotecltd.sharepoint.com/sites/InternalExternalTeams/Shared Documents/General/EPS Tests Packs for EPSAT Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathew.arnold\electronic-prescription-service-api\tool\e2e-tests\test-packs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3B47AC96-B0CF-4173-A17F-80D0B17809B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A8A6DCC-1DEF-43DD-9784-1F2B9CC9E556}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2469513C-2FB1-4F6A-B3CF-07ED4F2397E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="37140" yWindow="5445" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="16186" firstSheet="1" activeTab="1" xr2:uid="{DE2866F1-D839-4AD2-B338-FF4A1D84F7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="2" r:id="rId1"/>
     <sheet name="Prescriptions" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prescriptions!$A$1:$U$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prescriptions!$A$1:$V$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="165">
   <si>
     <t>Only one organisation is supported</t>
   </si>
@@ -529,6 +528,12 @@
   </si>
   <si>
     <t>Controlled Drug Quantity</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Nominated Pharmacy Type</t>
   </si>
 </sst>
 </file>
@@ -956,42 +961,42 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="82.77734375" customWidth="1"/>
+    <col min="1" max="1" width="82.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1004,39 +1009,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}">
-  <dimension ref="A1:U81"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="86.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.34765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.34765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.34765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.34765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.44921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.6484375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.8984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="86.546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.35" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1050,58 +1056,61 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1114,43 +1123,46 @@
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
+      <c r="E2" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="9" t="s">
+      <c r="Q2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1163,43 +1175,46 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>28</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="9" t="s">
+      <c r="Q3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1212,43 +1227,46 @@
       <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
+      <c r="E4" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>28</v>
-      </c>
-      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="9" t="s">
+      <c r="Q4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1261,43 +1279,46 @@
       <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
+      <c r="E5" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9" t="s">
+      <c r="Q5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1310,43 +1331,46 @@
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
+      <c r="E6" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>28</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>28</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9" t="s">
+      <c r="Q6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1359,43 +1383,46 @@
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
+      <c r="E7" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="9" t="s">
+      <c r="Q7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1408,43 +1435,46 @@
       <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
+      <c r="E8" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>28</v>
-      </c>
-      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>28</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9" t="s">
+      <c r="Q8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1457,43 +1487,46 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
+      <c r="E9" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>28</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>28</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9" t="s">
+      <c r="Q9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1506,43 +1539,46 @@
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
+      <c r="E10" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>28</v>
-      </c>
-      <c r="H10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>28</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9" t="s">
+      <c r="Q10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1555,43 +1591,46 @@
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="E11" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>28</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9" t="s">
+      <c r="Q11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1604,43 +1643,46 @@
       <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
+      <c r="E12" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="9" t="s">
+      <c r="Q12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1653,43 +1695,46 @@
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
+      <c r="E13" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="9" t="s">
+      <c r="Q13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1702,43 +1747,46 @@
       <c r="D14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
+      <c r="E14" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>28</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="9" t="s">
+      <c r="Q14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1751,43 +1799,46 @@
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
+      <c r="E15" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>28</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9" t="s">
+      <c r="Q15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1800,43 +1851,46 @@
       <c r="D16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
+      <c r="E16" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>28</v>
-      </c>
-      <c r="H16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>28</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="9" t="s">
+      <c r="Q16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1849,43 +1903,46 @@
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
+      <c r="E17" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>28</v>
-      </c>
-      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>28</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9" t="s">
+      <c r="Q17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1898,43 +1955,46 @@
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
+      <c r="E18" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>28</v>
-      </c>
-      <c r="H18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>28</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="9" t="s">
+      <c r="Q18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1947,43 +2007,46 @@
       <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
+      <c r="E19" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>28</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>28</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="N19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="9" t="s">
+      <c r="Q19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1996,43 +2059,46 @@
       <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
+      <c r="E20" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>28</v>
-      </c>
-      <c r="H20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>28</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="9" t="s">
+      <c r="Q20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2045,43 +2111,46 @@
       <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
+      <c r="E21" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>28</v>
-      </c>
-      <c r="H21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>28</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="9" t="s">
+      <c r="Q21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2094,43 +2163,46 @@
       <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
+      <c r="E22" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>28</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>28</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="9" t="s">
+      <c r="Q22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2143,43 +2215,46 @@
       <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
+      <c r="E23" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>28</v>
-      </c>
-      <c r="H23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>28</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="9" t="s">
+      <c r="Q23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2192,43 +2267,46 @@
       <c r="D24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
+      <c r="E24" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>28</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="N24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="9" t="s">
+      <c r="Q24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2241,43 +2319,46 @@
       <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
+      <c r="E25" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>28</v>
-      </c>
-      <c r="H25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>28</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="9" t="s">
+      <c r="Q25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2290,43 +2371,46 @@
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
+      <c r="E26" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>28</v>
-      </c>
-      <c r="H26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>28</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="N26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="9" t="s">
+      <c r="Q26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2339,43 +2423,46 @@
       <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
+      <c r="E27" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>28</v>
-      </c>
-      <c r="H27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>28</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="9" t="s">
+      <c r="Q27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2388,43 +2475,46 @@
       <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
+      <c r="E28" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>28</v>
-      </c>
-      <c r="H28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>28</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="9" t="s">
+      <c r="Q28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2437,43 +2527,46 @@
       <c r="D29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
+      <c r="E29" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>28</v>
-      </c>
-      <c r="H29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="N29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="9" t="s">
+      <c r="Q29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2486,43 +2579,46 @@
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
+      <c r="E30" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>28</v>
-      </c>
-      <c r="H30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>28</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="9" t="s">
+      <c r="Q30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2535,43 +2631,46 @@
       <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
+      <c r="E31" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>28</v>
-      </c>
-      <c r="H31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>28</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="N31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="9" t="s">
+      <c r="Q31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2584,43 +2683,46 @@
       <c r="D32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
+      <c r="E32" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>28</v>
-      </c>
-      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>28</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="9" t="s">
+      <c r="Q32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2633,43 +2735,46 @@
       <c r="D33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
+      <c r="E33" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>28</v>
-      </c>
-      <c r="H33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>28</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="9" t="s">
+      <c r="Q33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2682,43 +2787,46 @@
       <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
+      <c r="E34" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>28</v>
-      </c>
-      <c r="H34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>28</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="N34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="9" t="s">
+      <c r="Q34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2731,43 +2839,46 @@
       <c r="D35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
+      <c r="E35" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>28</v>
-      </c>
-      <c r="H35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>28</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="J35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="9" t="s">
+      <c r="Q35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2780,43 +2891,46 @@
       <c r="D36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="1">
-        <v>1</v>
+      <c r="E36" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>28</v>
-      </c>
-      <c r="H36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>28</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="J36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="M36" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="N36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="9" t="s">
+      <c r="Q36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2829,43 +2943,46 @@
       <c r="D37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
+      <c r="E37" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>28</v>
-      </c>
-      <c r="H37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>28</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="9" t="s">
+      <c r="Q37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2878,43 +2995,46 @@
       <c r="D38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="1">
-        <v>1</v>
+      <c r="E38" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>28</v>
-      </c>
-      <c r="H38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>28</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="J38" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="9" t="s">
+      <c r="Q38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2927,43 +3047,46 @@
       <c r="D39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
+      <c r="E39" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>28</v>
-      </c>
-      <c r="H39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>28</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="M39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="N39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="9" t="s">
+      <c r="Q39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2976,43 +3099,46 @@
       <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
+      <c r="E40" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>28</v>
-      </c>
-      <c r="H40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>28</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="M40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="9" t="s">
+      <c r="Q40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3025,43 +3151,46 @@
       <c r="D41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
+      <c r="E41" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>28</v>
-      </c>
-      <c r="H41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>28</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="J41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="M41" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="N41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="9" t="s">
+      <c r="Q41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3074,43 +3203,46 @@
       <c r="D42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
+      <c r="E42" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>28</v>
-      </c>
-      <c r="H42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>28</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="M42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="9" t="s">
+      <c r="Q42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3123,43 +3255,46 @@
       <c r="D43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
+      <c r="E43" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>28</v>
-      </c>
-      <c r="H43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>28</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="J43" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="M43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="9" t="s">
+      <c r="Q43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3172,43 +3307,46 @@
       <c r="D44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="1">
-        <v>1</v>
+      <c r="E44" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>28</v>
-      </c>
-      <c r="H44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>28</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="M44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="N44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="9" t="s">
+      <c r="Q44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3221,43 +3359,46 @@
       <c r="D45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="1">
-        <v>1</v>
+      <c r="E45" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>28</v>
-      </c>
-      <c r="H45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>28</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="J45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="M45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="9" t="s">
+      <c r="Q45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3270,43 +3411,46 @@
       <c r="D46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="1">
-        <v>1</v>
+      <c r="E46" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>28</v>
-      </c>
-      <c r="H46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>28</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="J46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="K46" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="M46" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="N46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="9" t="s">
+      <c r="Q46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3319,43 +3463,46 @@
       <c r="D47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
+      <c r="E47" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>28</v>
-      </c>
-      <c r="H47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>28</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="M47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="9" t="s">
+      <c r="Q47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3368,43 +3515,46 @@
       <c r="D48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="1">
-        <v>1</v>
+      <c r="E48" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>28</v>
-      </c>
-      <c r="H48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>28</v>
+      </c>
+      <c r="I48" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="M48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="9" t="s">
+      <c r="Q48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3417,43 +3567,46 @@
       <c r="D49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="1">
-        <v>1</v>
+      <c r="E49" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>28</v>
-      </c>
-      <c r="H49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>28</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="M49" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="N49" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="9" t="s">
+      <c r="Q49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3466,43 +3619,46 @@
       <c r="D50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="1">
-        <v>1</v>
+      <c r="E50" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>28</v>
-      </c>
-      <c r="H50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>28</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="J50" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="M50" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="9" t="s">
+      <c r="Q50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3515,43 +3671,46 @@
       <c r="D51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E51" s="1">
-        <v>1</v>
+      <c r="E51" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>28</v>
-      </c>
-      <c r="H51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>28</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="J51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="K51" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="M51" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="N51" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="9" t="s">
+      <c r="Q51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3564,43 +3723,46 @@
       <c r="D52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="1">
-        <v>1</v>
+      <c r="E52" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>28</v>
-      </c>
-      <c r="H52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>28</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="9" t="s">
+      <c r="Q52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3613,43 +3775,46 @@
       <c r="D53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="1">
-        <v>1</v>
+      <c r="E53" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>28</v>
-      </c>
-      <c r="H53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>28</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="M53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="9" t="s">
+      <c r="Q53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="9" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3662,43 +3827,46 @@
       <c r="D54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="1">
-        <v>1</v>
+      <c r="E54" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>28</v>
-      </c>
-      <c r="H54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>28</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="J54" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="M54" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="N54" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="9" t="s">
+      <c r="Q54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3711,43 +3879,46 @@
       <c r="D55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="1">
-        <v>1</v>
+      <c r="E55" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="G55" s="1">
-        <v>28</v>
-      </c>
-      <c r="H55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>28</v>
+      </c>
+      <c r="I55" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="J55" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="7" t="s">
+      <c r="K55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="M55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="9" t="s">
+      <c r="Q55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3760,43 +3931,46 @@
       <c r="D56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="1">
-        <v>1</v>
+      <c r="E56" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>28</v>
-      </c>
-      <c r="H56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>28</v>
+      </c>
+      <c r="I56" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="J56" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="9" t="s">
+      <c r="Q56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3809,43 +3983,46 @@
       <c r="D57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="1">
-        <v>1</v>
+      <c r="E57" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <v>28</v>
-      </c>
-      <c r="H57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>28</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L57" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="9" t="s">
+      <c r="Q57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3858,43 +4035,46 @@
       <c r="D58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="1">
-        <v>1</v>
+      <c r="E58" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>28</v>
-      </c>
-      <c r="H58" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>28</v>
+      </c>
+      <c r="I58" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="J58" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="M58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="9" t="s">
+      <c r="Q58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3907,43 +4087,46 @@
       <c r="D59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E59" s="1">
-        <v>1</v>
+      <c r="E59" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
       </c>
       <c r="G59" s="1">
-        <v>28</v>
-      </c>
-      <c r="H59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>28</v>
+      </c>
+      <c r="I59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="J59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L59" s="7" t="s">
+      <c r="M59" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="N59" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="N59" s="1"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="9" t="s">
+      <c r="Q59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3956,43 +4139,46 @@
       <c r="D60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="1">
-        <v>1</v>
+      <c r="E60" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>28</v>
-      </c>
-      <c r="H60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>28</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="J60" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="M60" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="9" t="s">
+      <c r="Q60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4005,43 +4191,46 @@
       <c r="D61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="1">
-        <v>1</v>
+      <c r="E61" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>28</v>
-      </c>
-      <c r="H61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>28</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="J61" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="M61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="N61" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="9" t="s">
+      <c r="Q61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4054,196 +4243,199 @@
       <c r="D62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="1">
-        <v>1</v>
+      <c r="E62" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <v>28</v>
-      </c>
-      <c r="H62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>28</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" s="7" t="s">
+      <c r="K62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="M62" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="9" t="s">
+      <c r="Q62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="7"/>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I63" s="7"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="1"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="I64" s="7"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="7"/>
+      <c r="L64" s="1"/>
       <c r="M64" s="7"/>
-    </row>
-    <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="7"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I65" s="7"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="1"/>
       <c r="L65" s="7"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
-    </row>
-    <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="1"/>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-      <c r="K67" s="7"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="7"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I68" s="7"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="1"/>
       <c r="L68" s="7"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H69" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I69" s="7"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="7"/>
+      <c r="L69" s="1"/>
       <c r="M69" s="7"/>
-    </row>
-    <row r="70" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H70" s="7"/>
+      <c r="N69" s="7"/>
+    </row>
+    <row r="70" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I70" s="7"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="1"/>
       <c r="L70" s="7"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H71" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-    </row>
-    <row r="72" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H72" s="1"/>
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="7"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="7"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H73" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I73" s="7"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="1"/>
       <c r="L73" s="7"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H74" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I74" s="7"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="7"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="7"/>
+      <c r="L74" s="1"/>
       <c r="M74" s="7"/>
-    </row>
-    <row r="75" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H75" s="7"/>
+      <c r="N74" s="7"/>
+    </row>
+    <row r="75" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I75" s="7"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="1"/>
       <c r="L75" s="7"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H76" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-    </row>
-    <row r="77" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H77" s="1"/>
+      <c r="N76" s="7"/>
+    </row>
+    <row r="77" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-      <c r="K77" s="7"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="7"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H78" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I78" s="7"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="1"/>
       <c r="L78" s="7"/>
-      <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H79" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I79" s="7"/>
-      <c r="J79" s="1"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="7"/>
+      <c r="L79" s="1"/>
       <c r="M79" s="7"/>
-    </row>
-    <row r="80" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H80" s="7"/>
+      <c r="N79" s="7"/>
+    </row>
+    <row r="80" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I80" s="7"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="1"/>
       <c r="L80" s="7"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H81" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U6" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}"/>
+  <autoFilter ref="A1:V6" xr:uid="{90350D13-E130-47A5-A64D-77E01FA3003F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
